--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>FGSM eps=0.1</t>
+  </si>
+  <si>
+    <t>在长文本语料上测试</t>
+  </si>
+  <si>
+    <t>长文本效果不好其他模型不再跑了</t>
+  </si>
+  <si>
+    <t>仅使用对抗样本训练梯度</t>
+  </si>
+  <si>
+    <t>0.9155    0.9155    0.9152</t>
+  </si>
+  <si>
+    <t>更新pgd算法</t>
+  </si>
+  <si>
+    <t>PGD k=3 a=0.3</t>
+  </si>
+  <si>
+    <t>0.9120    0.9116    0.9117</t>
   </si>
 </sst>
 </file>
@@ -86,7 +107,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +126,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,137 +601,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +751,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -788,870 +821,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>短文本分类</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>F1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$C$3,Sheet1!$C$4,Sheet1!$C$5,Sheet1!$C$10,Sheet1!$C$11)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>TextCNN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FGM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>PGD k=3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FreeAT m=3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FGSM eps=0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$H$3,Sheet1!$H$4,Sheet1!$H$5,Sheet1!$H$10,Sheet1!$H$11)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.9115</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.914</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9121</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="926799434"/>
-        <c:axId val="288321776"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="926799434"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="288321776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="288321776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="926799434"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8537575" y="127000"/>
-        <a:ext cx="4572000" cy="2743200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1912,16 +1081,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
@@ -1980,7 +1149,7 @@
       <c r="H3" s="6">
         <v>0.9115</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>0.9116</v>
       </c>
     </row>
@@ -2003,7 +1172,7 @@
       <c r="H4" s="6">
         <v>0.9151</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <v>0.9151</v>
       </c>
     </row>
@@ -2026,7 +1195,7 @@
       <c r="H5" s="6">
         <v>0.914</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>0.9141</v>
       </c>
     </row>
@@ -2055,7 +1224,7 @@
       <c r="H6">
         <v>0.9151</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <v>0.9151</v>
       </c>
     </row>
@@ -2081,7 +1250,7 @@
       <c r="H7">
         <v>0.8472</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <v>0.8471</v>
       </c>
     </row>
@@ -2107,7 +1276,7 @@
       <c r="H8">
         <v>0.914</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <v>0.9141</v>
       </c>
     </row>
@@ -2136,7 +1305,7 @@
       <c r="H9">
         <v>0.9139</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <v>0.9139</v>
       </c>
     </row>
@@ -2159,7 +1328,7 @@
       <c r="H10" s="6">
         <v>0.9121</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <v>0.9119</v>
       </c>
     </row>
@@ -2182,13 +1351,111 @@
       <c r="H11" s="6">
         <v>0.9105</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <v>0.9107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>44384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F12">
+        <v>0.9347</v>
+      </c>
+      <c r="G12">
+        <v>0.9337</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.9337</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.9337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.433877314814815</v>
+      </c>
+      <c r="F13">
+        <v>0.934</v>
+      </c>
+      <c r="G13">
+        <v>0.933</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.9329</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>44385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>9100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.0560763888888889</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.9155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.0439351851851852</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.9116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>